--- a/Opencart-Test Senario.xlsx
+++ b/Opencart-Test Senario.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Senario" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="201">
   <si>
     <t>Project Name</t>
   </si>
@@ -87,9 +88,6 @@
     <t>P0</t>
   </si>
   <si>
-    <t>TS _002</t>
-  </si>
-  <si>
     <t>Validate the working of My Account &gt; Login fuctionality</t>
   </si>
   <si>
@@ -157,9 +155,6 @@
   </si>
   <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>Acctual Result</t>
   </si>
   <si>
     <t>Result</t>
@@ -195,15 +190,6 @@
     logged in status.
 3.User should get confirmation message on  
     registered email.</t>
-  </si>
-  <si>
-    <t>1.Click on My Account drop menu.
-2.Click on register option.
-3.Enter new account details into mandatory 
-   fields(First Name,Last  
-   Name,Email,Password and Privacy Policy 
-   fields).
-4.Click on continue button.(ER1,ER2,ER3).</t>
   </si>
   <si>
     <t>TC_RF_002</t>
@@ -224,12 +210,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1.Click on My Account drop menu.
-2.Click on register option.
-3.Click on continue button(ER1).
-</t>
-  </si>
-  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -261,17 +241,6 @@
 2.User should be take on account page with    
     logged in status.
 3.By default 'Yes ' option is selected.</t>
-  </si>
-  <si>
-    <t>1.Click on My Account drop menu.
-2.Click on register option.
-3.Enter new account details into mandatory 
-   fields(First Name,Last  
-   Name,Email,Password,Select newsletter      
-   option 'Yes' and Privacy Policy 
-   fields).
-4.Click on continue button.(ER1,ER2).
-5.Click on newsletter tab displyed on right side(ER3).</t>
   </si>
   <si>
     <t>1.Message should be displayed
@@ -296,21 +265,6 @@
 2.User should be take on account page with    
     logged in status.
 </t>
-  </si>
-  <si>
-    <t>1.Click on My Account drop menu.
-2.Click on register option.
-3.Enter new account details into mandatory 
-   fields(First Name,LastName,Email,
-   Password &lt;Refer test data:1 and 2&gt;  and       
-   Privacy Policy fields).
-4.Click on continue button.(ER1).
-5.Repeat steps 1 and 2.
-6.Enter new account details into mandatory 
-   fields(First Name,LastName,Email,
-   Password &lt;Refer test data:3 to 5&gt;  and       
-   Privacy Policy fields).
-7.Click on continue button.(ER2,ER3).</t>
   </si>
   <si>
     <t>TC_RF_007</t>
@@ -374,15 +328,6 @@
     <t>1.Click on My Account drop menu.
 2.Click on register option.
 3.Enter new account details into mandatory 
-   fields(First Name,Last Name,Email,
-   Password and Privacy Policy 
-   fields).
-4.Click on continue button.(ER1,ER2,ER3).</t>
-  </si>
-  <si>
-    <t>1.Click on My Account drop menu.
-2.Click on register option.
-3.Enter new account details into mandatory 
    fields(First Name,Last Name,Email,     
    Password and Privacy Policy 
    fields) by using keyboard keys tab and  
@@ -449,14 +394,6 @@
 *For Password Field:-Password must be between 4 and 20 characters!</t>
   </si>
   <si>
-    <t>1.Click on My Account drop menu.
-2.Click on register option.
-3.Enter spaces into mandatory 
-   fields(First Name,Last Name,Email,
-   Password ).
-4.Click on continue button(ER1).</t>
-  </si>
-  <si>
     <t>TC_RF_012</t>
   </si>
   <si>
@@ -510,15 +447,6 @@
   </si>
   <si>
     <t>Validate register an account by without selecting Privacy policy check box.</t>
-  </si>
-  <si>
-    <t>1.Click on My Account drop menu.
-2.Click on register option.
-3.Enter new account details into mandatory 
-   fields(First Name,Last Name,Email,
-   Password and do not select Privacy Policy 
-   check box).
-4.Click on continue button.(ER1).</t>
   </si>
   <si>
     <t>1.Following warning message should be display
@@ -581,12 +509,407 @@
     <t>1.Breadcrumb,page title,page URL ,page heading  
    of account register page is displayed.</t>
   </si>
+  <si>
+    <t>TS_002 Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case Description </t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result </t>
+  </si>
+  <si>
+    <t>TS_002-Test cases for Validate the working of My Account &gt; Login fuctionality</t>
+  </si>
+  <si>
+    <t>TC_LF_001</t>
+  </si>
+  <si>
+    <t>(TS_002)
+Login Functionality</t>
+  </si>
+  <si>
+    <t>Validate login into an application by using
+ valid credentials.</t>
+  </si>
+  <si>
+    <t>TC_LF_002</t>
+  </si>
+  <si>
+    <t>Validate login into an application by using
+ invalid credentials.</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on register option.
+3.Enter new account details into mandatory 
+   fields(First Name,Last Name,Email,
+   Password and Privacy Policy 
+   fields).
+4.Click on continue button.(ER1,ER2,ER3)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on register option.
+3.Enter new account details into mandatory 
+   fields(First Name,Last  
+   Name,Email,Password and Privacy Policy 
+   fields).
+4.Click on continue button.(ER1,ER2,ER3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on My Account drop menu.
+2.Click on register option.
+3.Click on continue button.(ER1)
+</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on register option.
+3.Enter new account details into mandatory 
+   fields(First Name,Last  
+   Name,Email,Password,Select newsletter      
+   option 'Yes' and Privacy Policy 
+   fields).
+4.Click on continue button.(ER1,ER2)
+5.Click on newsletter tab displyed on right side.(ER3)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on register option.
+3.Enter new account details into mandatory 
+   fields(First Name,LastName,Email,
+   Password &lt;Refer test data:1 and 2&gt;  and       
+   Privacy Policy fields).
+4.Click on continue button.(ER1)
+5.Repeat steps 1 and 2.
+6.Enter new account details into mandatory 
+   fields(First Name,LastName,Email,
+   Password &lt;Refer test data:3 to 5&gt;  and       
+   Privacy Policy fields).
+7.Click on continue button.(ER2,ER3)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on register option.
+3.Enter spaces into mandatory 
+   fields(First Name,Last Name,Email,
+   Password ).
+4.Click on continue button.(ER1)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on register option.
+3.Enter new account details into mandatory 
+   fields(First Name,Last Name,Email,
+   Password and do not select Privacy Policy 
+   check box).
+4.Click on continue button.(ER1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Open the application
+   (https://demo.opencart.com/)
+   in any browser.
+2)Login credentials of existing    
+   account are required.
+</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Email address:-      
+   rohit1@gmail.com
+&gt;&gt;Password:-Jack@55</t>
+  </si>
+  <si>
+    <t>1.User should land on Login page.
+2.User should loggedin and land on my account page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Open the application
+   (https://demo.opencart.com/)
+   in any browser.
+</t>
+  </si>
+  <si>
+    <t>1.Following warning message should be displayed 'No match for email address and/or password'.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Email address:-      
+   aasjk151@gmail.com
+&gt;&gt;Password:-sahasc135</t>
+  </si>
+  <si>
+    <t>TC_LF_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate login into an application without 
+providing any credentials. </t>
+  </si>
+  <si>
+    <t>TC_LF_004</t>
+  </si>
+  <si>
+    <t>Validate login into an applicatio by using valid email address and invalid password.</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3)Enter valid email address and Invalid password &lt;Refer Test Data&gt;.
+4)Click on Login button.(ER1)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Email address:-      
+   rohit1@gmail.com
+&gt;&gt;Password:-jsaskja5</t>
+  </si>
+  <si>
+    <t>TC_LF_005</t>
+  </si>
+  <si>
+    <t>Validate login into an applicatio by using invalid email address and valid password.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Email address:-      
+   dssddd@gmail.com
+&gt;&gt;Password:-Jack@55</t>
+  </si>
+  <si>
+    <t>TC_LF_006</t>
+  </si>
+  <si>
+    <t>Validate forgot password link present in login page.</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Email address:-      
+   rohit1@gmail.com</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Click on forgot password link.(ER1)
+4.Enter valid email address&lt;Refer Test Data&gt;.
+5.Click on continue button.(ER2)</t>
+  </si>
+  <si>
+    <t>1.User should land on forgot your password page.
+2.'Password send successfully on registered email address' message should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_LF_007</t>
+  </si>
+  <si>
+    <t>Validate login into an application by using keyboard keys(tab and enter).</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Press the tab key until control comes to email address text field and enter the enail id&lt;Refer Test Data&gt;.
+4.Press the tab key until control comes to password text field and enter the password&lt;Refer Test Data&gt;.
+5.Press tab key until contorl comes to login button and press enter key.(ER1)</t>
+  </si>
+  <si>
+    <t>1.User should loggedin and land on my account 
+page.</t>
+  </si>
+  <si>
+    <t>TC_LF_008</t>
+  </si>
+  <si>
+    <t>Validate Email address text field and password text field in login page having place holder text.</t>
+  </si>
+  <si>
+    <t>1.Proper place holder text displayed in email address and password text field.</t>
+  </si>
+  <si>
+    <t>TC_LF_009</t>
+  </si>
+  <si>
+    <t>Validate login into an application and browsing back by using browser back button.</t>
+  </si>
+  <si>
+    <t>1.User should logged in.
+2.User should not logged out.</t>
+  </si>
+  <si>
+    <t>TC_LF_010</t>
+  </si>
+  <si>
+    <t>Validate text intothe password field is toggeled to hide its visibility.</t>
+  </si>
+  <si>
+    <t>1.Text entered into password text field is 
+toggeled to hide its visibility(* should be display).</t>
+  </si>
+  <si>
+    <t>TC_LF_011</t>
+  </si>
+  <si>
+    <t>Validate copying of text entered into password field.</t>
+  </si>
+  <si>
+    <t>1.Text entered into password text field should not be copied.
+2.'Copy' option after right click should be disabled.</t>
+  </si>
+  <si>
+    <t>TC_LF_012</t>
+  </si>
+  <si>
+    <t>Validate login into an application after password is changed.</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Enter valid email address and Invalid password &lt;Refer Test Data&gt;.
+4.Click on Login button.(ER1)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Enter invalid email address and password &lt;Refer Test Data&gt;.
+4.Click on Login button.(ER1)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Click on Login button.(ER1)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.(ER1)
+3.Enter valid email address and password &lt;Refer Test Data&gt;.
+4.Click on Login button.(ER2)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Enter any text in password text field.
+4.Select the text entered into password text field and press control+C.(ER1)
+5.Select the text entered into password text field and right click to select 'copy' option.(ER2)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Enter valid email address and password &lt;Refer Test Data&gt;.
+4.Click on Login button.(ER1)
+5.Click on browser back button.(ER2)</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Enter any text in password text field.(ER1)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Email address:-      
+   rohit1@gmail.com
+&gt;&gt;Password:-Jack@55
+&gt;&gt;New Password:-546855</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Enter valid email address and password &lt;Refer Test Data&gt;.
+4.Click on Login button.
+4.Click on chage your password link.
+5.Enter new password into password and confirm password text field&lt;Refer Test Data&gt;.(ER1)
+6.Click on Logout option from My Account drop menu.(ER2)
+7.Repeat steps from 1 to 4.(ER3)
+8.Repeat steps from 1 to 4 with new password.(ER4)</t>
+  </si>
+  <si>
+    <t>1.Following message should be displayed 'Your password changed successfully'.
+2.User should be logout from application.
+3.User should not be login into application.
+4.User should be loggedin  into application.</t>
+  </si>
+  <si>
+    <t>TC_LF_013</t>
+  </si>
+  <si>
+    <t>Validate login into an application,close the browser without logout from application and open the application once again in browser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;Email address:-      
+   rohit1@gmail.com
+&gt;&gt;Password:-Jack@55
+</t>
+  </si>
+  <si>
+    <t>1.Click on My Account drop menu.
+2.Click on Login Option.
+3.Enter valid email address and password &lt;Refer Test Data&gt;.
+4.Click on Login button.(ER1)
+4.Close the browser.
+5.Open the browser and open the application URL.(ER2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saajhb  ftadssayasliv  sachin gbxdgf eb e  hn \41455 545852 9923467</t>
+  </si>
+  <si>
+    <t>TC_LF_014</t>
+  </si>
+  <si>
+    <t>Validate different ways of navigating to login page.</t>
+  </si>
+  <si>
+    <t>1.User should be land on login page.
+2.User should login into application successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on My Account drop menu.
+2.Click on Register Option.
+3.Click on login page link displayed on register account page.(ER1)
+4.Enter valid email address and password &lt;Refer Test Data&gt;.
+4.Click on Login button.(ER2)
+</t>
+  </si>
+  <si>
+    <t>TC_LF_015</t>
+  </si>
+  <si>
+    <t>Validate the breadcrumb,page title,page
+URL ,page heading of account login page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Click on My Account drop menu.
+2.Click on login option.
+</t>
+  </si>
+  <si>
+    <t>1.Breadcrumb,page title,page URL ,page heading  
+ of account loginr page is displayed.</t>
+  </si>
+  <si>
+    <t>TC_LF_016</t>
+  </si>
+  <si>
+    <t>Validate the UI of account login page.</t>
+  </si>
+  <si>
+    <t>1.Proper UI of account login page is displayed.</t>
+  </si>
+  <si>
+    <t>TC_LF_017</t>
+  </si>
+  <si>
+    <t>Validate account login functionality is 
+supported in all environments.</t>
+  </si>
+  <si>
+    <t>1.Account login functionality supported in  
+all environments.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,8 +947,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +991,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -743,9 +1087,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,21 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -793,10 +1119,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1454,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,65 +1477,65 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="23"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -1190,9 +1558,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -1207,116 +1575,119 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>116</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
+      <c r="E13" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>27</v>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>34</v>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1335,6 +1706,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A12" location="Register!A1" display=" TS_001 Register"/>
+    <hyperlink ref="A13" location="Login!A1" display="Login!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1345,17 +1717,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="14" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" customWidth="1"/>
     <col min="7" max="7" width="41.21875" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
@@ -1363,471 +1735,471 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>47</v>
+      <c r="A1" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="14" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="D5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="20" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="B6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="E6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="207.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="25" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="G14" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="207.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="204" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="C15" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="F20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1842,4 +2214,480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="E2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1:A2" location="'Test Senario'!A1" display="'Test Senario'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>